--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ThomasCollins\Life\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5081827-0BF1-4B6E-8C81-F21FBC4EE85D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t xml:space="preserve">Expenses </t>
   </si>
@@ -120,12 +121,33 @@
   </si>
   <si>
     <t>https://www.treatland.tv/original-OEM-tomos-running-board-left-side-p/tomos-oem-running-board-229868.htm</t>
+  </si>
+  <si>
+    <t>Tail Light</t>
+  </si>
+  <si>
+    <t>https://www.treatland.tv/original-tomos-turn-signal-p/tomos-turnsignal-230651-230650.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Fender </t>
+  </si>
+  <si>
+    <t>Front Fender Stay</t>
+  </si>
+  <si>
+    <t>https://www.treatland.tv/tomos-OEM-fender-stay-LOWER-RED-p/tomos-fender-stay-242128red.htm</t>
+  </si>
+  <si>
+    <t>https://www.treatland.tv/tomos-OEM-03-06-sprint-lx-FRONT-fender-RED-p/tomos-oem-fender-242130red.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickstand </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -200,14 +222,20 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="https://scontent.fzty2-1.fna.fbcdn.net/v/t1.15752-9/56533788_2333659293359605_6201000093210902528_n.jpg?_nc_cat=109&amp;_nc_ht=scontent.fzty2-1.fna&amp;oh=9ff12ca1b410ed47df804ac03418cc49&amp;oe=5D07801E"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="https://scontent.fzty2-1.fna.fbcdn.net/v/t1.15752-9/56533788_2333659293359605_6201000093210902528_n.jpg?_nc_cat=109&amp;_nc_ht=scontent.fzty2-1.fna&amp;oh=9ff12ca1b410ed47df804ac03418cc49&amp;oe=5D07801E">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -226,7 +254,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="180975" y="104775"/>
-          <a:ext cx="4286250" cy="2657476"/>
+          <a:ext cx="5625465" cy="3283566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -510,29 +538,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B20:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>3</v>
       </c>
@@ -555,7 +583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>43562</v>
       </c>
@@ -578,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>43562</v>
       </c>
@@ -601,7 +629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>43562</v>
       </c>
@@ -624,7 +652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>43562</v>
       </c>
@@ -647,7 +675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>43562</v>
       </c>
@@ -670,12 +698,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -692,32 +720,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>28</v>
       </c>
@@ -734,7 +762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -751,15 +779,74 @@
         <v>31</v>
       </c>
     </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H26" r:id="rId1" display="https://www.amazon.com/BikeMaster-Tube-Straight-Metal-2-50-16/dp/B001A6D0R8/ref=pd_bxgy_img_2/131-2066156-0745907?_encoding=UTF8&amp;pd_rd_i=B001A6D0R8&amp;pd_rd_r=b0bcf73e-5a23-11e9-8230-4d773af4cdcd&amp;pd_rd_w=o8BJi&amp;pd_rd_wg=cGl1K&amp;pf_rd_p=a2006322-0bc0-4db9-a08e-d168c18ce6f0&amp;pf_rd_r=43K0ASKSSXTRCWNZ4C8S&amp;psc=1&amp;refRID=43K0ASKSSXTRCWNZ4C8S"/>
-    <hyperlink ref="H27" r:id="rId2" display="https://www.amazon.com/IRC-Rim-Strips-16/dp/B001DDF4L8/ref=pd_bxgy_img_3/131-2066156-0745907?_encoding=UTF8&amp;pd_rd_i=B001DDF4L8&amp;pd_rd_r=b0bcf73e-5a23-11e9-8230-4d773af4cdcd&amp;pd_rd_w=o8BJi&amp;pd_rd_wg=cGl1K&amp;pf_rd_p=a2006322-0bc0-4db9-a08e-d168c18ce6f0&amp;pf_rd_r=43K0ASKSSXTRCWNZ4C8S&amp;psc=1&amp;refRID=43K0ASKSSXTRCWNZ4C8S"/>
-    <hyperlink ref="H25" r:id="rId3"/>
-    <hyperlink ref="G43" r:id="rId4"/>
-    <hyperlink ref="G44" r:id="rId5"/>
+    <hyperlink ref="H26" r:id="rId1" display="https://www.amazon.com/BikeMaster-Tube-Straight-Metal-2-50-16/dp/B001A6D0R8/ref=pd_bxgy_img_2/131-2066156-0745907?_encoding=UTF8&amp;pd_rd_i=B001A6D0R8&amp;pd_rd_r=b0bcf73e-5a23-11e9-8230-4d773af4cdcd&amp;pd_rd_w=o8BJi&amp;pd_rd_wg=cGl1K&amp;pf_rd_p=a2006322-0bc0-4db9-a08e-d168c18ce6f0&amp;pf_rd_r=43K0ASKSSXTRCWNZ4C8S&amp;psc=1&amp;refRID=43K0ASKSSXTRCWNZ4C8S" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H27" r:id="rId2" display="https://www.amazon.com/IRC-Rim-Strips-16/dp/B001DDF4L8/ref=pd_bxgy_img_3/131-2066156-0745907?_encoding=UTF8&amp;pd_rd_i=B001DDF4L8&amp;pd_rd_r=b0bcf73e-5a23-11e9-8230-4d773af4cdcd&amp;pd_rd_w=o8BJi&amp;pd_rd_wg=cGl1K&amp;pf_rd_p=a2006322-0bc0-4db9-a08e-d168c18ce6f0&amp;pf_rd_r=43K0ASKSSXTRCWNZ4C8S&amp;psc=1&amp;refRID=43K0ASKSSXTRCWNZ4C8S" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G44" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G45" r:id="rId6" xr:uid="{1CB963D5-652C-45FA-A17A-F04E4944720B}"/>
+    <hyperlink ref="G47" r:id="rId7" xr:uid="{0A7C3CDF-49B0-4B17-B494-B57BA5EAE805}"/>
+    <hyperlink ref="G46" r:id="rId8" xr:uid="{E3B96414-2DA7-4716-85A0-573137AEBB7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5081827-0BF1-4B6E-8C81-F21FBC4EE85D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A311D61-01C7-4112-B3DC-EA4C8351F416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t xml:space="preserve">Expenses </t>
   </si>
@@ -142,6 +148,33 @@
   </si>
   <si>
     <t xml:space="preserve">Kickstand </t>
+  </si>
+  <si>
+    <t>https://www.mopeddivision.com/tomos-a35-center-kickstand/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kickstand Center Spring </t>
+  </si>
+  <si>
+    <t>https://www.mopeddivision.com/tomos-center-stand-spring-replacement/</t>
+  </si>
+  <si>
+    <t>Mirrors</t>
+  </si>
+  <si>
+    <t>https://www.mopeddivision.com/kinetic-moped-rectangular-threaded-10mm-mirror-set-universal-black-chrome/</t>
+  </si>
+  <si>
+    <t>tbd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbd. </t>
+  </si>
+  <si>
+    <t>https://www.unh.edu/transportation/moped-permits</t>
+  </si>
+  <si>
+    <t>https://www.nh.gov/safety/divisions/dmv/registration/index.htm</t>
   </si>
 </sst>
 </file>
@@ -539,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B20:H48"/>
+  <dimension ref="B20:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,26 +757,74 @@
       <c r="C38" t="s">
         <v>23</v>
       </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>24</v>
       </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>25</v>
       </c>
+      <c r="D40" s="2">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>26</v>
       </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>27</v>
       </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
@@ -833,6 +914,52 @@
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>38</v>
+      </c>
+      <c r="D48" s="2">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="2">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -845,8 +972,13 @@
     <hyperlink ref="G45" r:id="rId6" xr:uid="{1CB963D5-652C-45FA-A17A-F04E4944720B}"/>
     <hyperlink ref="G47" r:id="rId7" xr:uid="{0A7C3CDF-49B0-4B17-B494-B57BA5EAE805}"/>
     <hyperlink ref="G46" r:id="rId8" xr:uid="{E3B96414-2DA7-4716-85A0-573137AEBB7D}"/>
+    <hyperlink ref="G48" r:id="rId9" xr:uid="{C6BD6FEC-1AEE-4259-B430-28B4458E9116}"/>
+    <hyperlink ref="G49" r:id="rId10" xr:uid="{E853ED4D-56B7-445B-BB28-F039C4F4948F}"/>
+    <hyperlink ref="G50" r:id="rId11" xr:uid="{CAE10242-95FD-48D2-9250-97BA92EFFE8B}"/>
+    <hyperlink ref="G40" r:id="rId12" xr:uid="{3EFED318-E937-45AB-9CDE-CC224A1D4D2B}"/>
+    <hyperlink ref="G39" r:id="rId13" xr:uid="{F110C8D7-3CB4-49E9-93F7-19DBC3B362BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A311D61-01C7-4112-B3DC-EA4C8351F416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCFA4A8-B806-4057-B67B-B64AC592BDB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t xml:space="preserve">Expenses </t>
   </si>
@@ -129,9 +130,6 @@
     <t>https://www.treatland.tv/original-OEM-tomos-running-board-left-side-p/tomos-oem-running-board-229868.htm</t>
   </si>
   <si>
-    <t>Tail Light</t>
-  </si>
-  <si>
     <t>https://www.treatland.tv/original-tomos-turn-signal-p/tomos-turnsignal-230651-230650.htm</t>
   </si>
   <si>
@@ -175,6 +173,21 @@
   </si>
   <si>
     <t>https://www.nh.gov/safety/divisions/dmv/registration/index.htm</t>
+  </si>
+  <si>
+    <t>Tail Light (Turn Signal)</t>
+  </si>
+  <si>
+    <t>To be purchased by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engine Oil </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Lucas-Oil-10115-4PK-Semi-Synthetic-2-Cycle/dp/B0002KKTWC/ref=sr_1_13?keywords=lucas%2Bengine%2Boil&amp;qid=1554781907&amp;s=gateway&amp;sr=8-13&amp;th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO </t>
   </si>
 </sst>
 </file>
@@ -302,6 +315,54 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>318977</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD13E50-9E92-4458-A92E-070838C6AB57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="57632" t="27733" r="31194" b="42578"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708838" y="460745"/>
+          <a:ext cx="2020186" cy="2959396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -572,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B20:H50"/>
+  <dimension ref="B20:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,8 +644,7 @@
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,7 +807,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
         <v>7</v>
@@ -764,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -778,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -795,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -809,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
@@ -823,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
@@ -862,7 +922,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D45" s="2">
         <v>20</v>
@@ -874,12 +934,12 @@
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>20</v>
@@ -891,12 +951,12 @@
         <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>10</v>
@@ -908,12 +968,12 @@
         <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2">
         <v>20</v>
@@ -925,12 +985,12 @@
         <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D49" s="2">
         <v>4</v>
@@ -942,12 +1002,12 @@
         <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D50" s="2">
         <v>37</v>
@@ -959,7 +1019,24 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -977,8 +1054,30 @@
     <hyperlink ref="G50" r:id="rId11" xr:uid="{CAE10242-95FD-48D2-9250-97BA92EFFE8B}"/>
     <hyperlink ref="G40" r:id="rId12" xr:uid="{3EFED318-E937-45AB-9CDE-CC224A1D4D2B}"/>
     <hyperlink ref="G39" r:id="rId13" xr:uid="{F110C8D7-3CB4-49E9-93F7-19DBC3B362BF}"/>
+    <hyperlink ref="G51" r:id="rId14" xr:uid="{6E4918FB-D0AA-4DDE-B8FF-7AF63C9954B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A23E6C1-B680-4831-B6E8-4A64C1056CC8}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCFA4A8-B806-4057-B67B-B64AC592BDB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A45DF7D-C63F-4137-B9CF-1BF7AB7DB91C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t xml:space="preserve">Expenses </t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t xml:space="preserve">INFO </t>
+  </si>
+  <si>
+    <t>Tire Iron</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B071YLDTW9/ref=ox_sc_act_title_1?smid=A2IU5AHCG4DBD4&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -635,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B20:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,6 +795,29 @@
       </c>
       <c r="H27" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>43564</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -1055,9 +1084,10 @@
     <hyperlink ref="G40" r:id="rId12" xr:uid="{3EFED318-E937-45AB-9CDE-CC224A1D4D2B}"/>
     <hyperlink ref="G39" r:id="rId13" xr:uid="{F110C8D7-3CB4-49E9-93F7-19DBC3B362BF}"/>
     <hyperlink ref="G51" r:id="rId14" xr:uid="{6E4918FB-D0AA-4DDE-B8FF-7AF63C9954B9}"/>
+    <hyperlink ref="H28" r:id="rId15" xr:uid="{FD867A67-E6DF-4B20-97BF-2FC3289AC47D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A45DF7D-C63F-4137-B9CF-1BF7AB7DB91C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC16BD-A082-4739-A7D7-609BB9F9EA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B20:H51"/>
+  <dimension ref="B20:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,6 +820,29 @@
         <v>53</v>
       </c>
     </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>43565</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>21</v>
@@ -1049,23 +1072,6 @@
       </c>
       <c r="G50" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="2">
-        <v>31</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1089,7 @@
     <hyperlink ref="G50" r:id="rId11" xr:uid="{CAE10242-95FD-48D2-9250-97BA92EFFE8B}"/>
     <hyperlink ref="G40" r:id="rId12" xr:uid="{3EFED318-E937-45AB-9CDE-CC224A1D4D2B}"/>
     <hyperlink ref="G39" r:id="rId13" xr:uid="{F110C8D7-3CB4-49E9-93F7-19DBC3B362BF}"/>
-    <hyperlink ref="G51" r:id="rId14" xr:uid="{6E4918FB-D0AA-4DDE-B8FF-7AF63C9954B9}"/>
+    <hyperlink ref="H29" r:id="rId14" xr:uid="{6E4918FB-D0AA-4DDE-B8FF-7AF63C9954B9}"/>
     <hyperlink ref="H28" r:id="rId15" xr:uid="{FD867A67-E6DF-4B20-97BF-2FC3289AC47D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDC16BD-A082-4739-A7D7-609BB9F9EA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC0DCF-A500-4B21-9696-406B4147CF2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B20:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>

--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DC0DCF-A500-4B21-9696-406B4147CF2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC0D110-C603-4E3B-ADAB-62B7DBED6857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t xml:space="preserve">Expenses </t>
   </si>
@@ -103,9 +103,6 @@
     <t>Description of Expense</t>
   </si>
   <si>
-    <t xml:space="preserve">Tire Replacement </t>
-  </si>
-  <si>
     <t xml:space="preserve">UNH DMV Registration </t>
   </si>
   <si>
@@ -164,9 +161,6 @@
   </si>
   <si>
     <t>tbd.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbd. </t>
   </si>
   <si>
     <t>https://www.unh.edu/transportation/moped-permits</t>
@@ -639,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B20:H50"/>
+  <dimension ref="B20:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,7 +796,7 @@
         <v>43564</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
         <v>16</v>
@@ -817,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -825,7 +819,7 @@
         <v>43565</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2">
         <v>15</v>
@@ -840,7 +834,30 @@
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -859,7 +876,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G37" t="s">
         <v>7</v>
@@ -867,7 +884,10 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D38" s="2">
+        <v>30</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -875,13 +895,13 @@
       <c r="F38" t="s">
         <v>8</v>
       </c>
-      <c r="G38" t="s">
-        <v>44</v>
+      <c r="G38" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -889,16 +909,13 @@
       <c r="F39" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>46</v>
+      <c r="G39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -906,13 +923,16 @@
       <c r="F40" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>45</v>
+      <c r="G40" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D41" s="2">
+        <v>36</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -920,13 +940,16 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-      <c r="G41" t="s">
-        <v>43</v>
+      <c r="G41" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D42" s="2">
+        <v>36</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -934,33 +957,33 @@
       <c r="F42" t="s">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
-        <v>43</v>
+      <c r="G42" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -969,29 +992,29 @@
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
         <v>20</v>
@@ -1003,15 +1026,15 @@
         <v>8</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D47" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1020,16 +1043,16 @@
         <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2">
         <v>37</v>
       </c>
-      <c r="D48" s="2">
-        <v>20</v>
-      </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
@@ -1037,41 +1060,7 @@
         <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
         <v>41</v>
-      </c>
-      <c r="D50" s="2">
-        <v>37</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1079,16 +1068,16 @@
     <hyperlink ref="H26" r:id="rId1" display="https://www.amazon.com/BikeMaster-Tube-Straight-Metal-2-50-16/dp/B001A6D0R8/ref=pd_bxgy_img_2/131-2066156-0745907?_encoding=UTF8&amp;pd_rd_i=B001A6D0R8&amp;pd_rd_r=b0bcf73e-5a23-11e9-8230-4d773af4cdcd&amp;pd_rd_w=o8BJi&amp;pd_rd_wg=cGl1K&amp;pf_rd_p=a2006322-0bc0-4db9-a08e-d168c18ce6f0&amp;pf_rd_r=43K0ASKSSXTRCWNZ4C8S&amp;psc=1&amp;refRID=43K0ASKSSXTRCWNZ4C8S" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="H27" r:id="rId2" display="https://www.amazon.com/IRC-Rim-Strips-16/dp/B001DDF4L8/ref=pd_bxgy_img_3/131-2066156-0745907?_encoding=UTF8&amp;pd_rd_i=B001DDF4L8&amp;pd_rd_r=b0bcf73e-5a23-11e9-8230-4d773af4cdcd&amp;pd_rd_w=o8BJi&amp;pd_rd_wg=cGl1K&amp;pf_rd_p=a2006322-0bc0-4db9-a08e-d168c18ce6f0&amp;pf_rd_r=43K0ASKSSXTRCWNZ4C8S&amp;psc=1&amp;refRID=43K0ASKSSXTRCWNZ4C8S" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="H25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G43" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G44" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G45" r:id="rId6" xr:uid="{1CB963D5-652C-45FA-A17A-F04E4944720B}"/>
-    <hyperlink ref="G47" r:id="rId7" xr:uid="{0A7C3CDF-49B0-4B17-B494-B57BA5EAE805}"/>
-    <hyperlink ref="G46" r:id="rId8" xr:uid="{E3B96414-2DA7-4716-85A0-573137AEBB7D}"/>
-    <hyperlink ref="G48" r:id="rId9" xr:uid="{C6BD6FEC-1AEE-4259-B430-28B4458E9116}"/>
-    <hyperlink ref="G49" r:id="rId10" xr:uid="{E853ED4D-56B7-445B-BB28-F039C4F4948F}"/>
-    <hyperlink ref="G50" r:id="rId11" xr:uid="{CAE10242-95FD-48D2-9250-97BA92EFFE8B}"/>
-    <hyperlink ref="G40" r:id="rId12" xr:uid="{3EFED318-E937-45AB-9CDE-CC224A1D4D2B}"/>
-    <hyperlink ref="G39" r:id="rId13" xr:uid="{F110C8D7-3CB4-49E9-93F7-19DBC3B362BF}"/>
+    <hyperlink ref="G41" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G42" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G43" r:id="rId6" xr:uid="{1CB963D5-652C-45FA-A17A-F04E4944720B}"/>
+    <hyperlink ref="G45" r:id="rId7" xr:uid="{0A7C3CDF-49B0-4B17-B494-B57BA5EAE805}"/>
+    <hyperlink ref="G44" r:id="rId8" xr:uid="{E3B96414-2DA7-4716-85A0-573137AEBB7D}"/>
+    <hyperlink ref="G46" r:id="rId9" xr:uid="{C6BD6FEC-1AEE-4259-B430-28B4458E9116}"/>
+    <hyperlink ref="G47" r:id="rId10" xr:uid="{E853ED4D-56B7-445B-BB28-F039C4F4948F}"/>
+    <hyperlink ref="G48" r:id="rId11" xr:uid="{CAE10242-95FD-48D2-9250-97BA92EFFE8B}"/>
+    <hyperlink ref="G38" r:id="rId12" xr:uid="{3EFED318-E937-45AB-9CDE-CC224A1D4D2B}"/>
+    <hyperlink ref="H30" r:id="rId13" xr:uid="{F110C8D7-3CB4-49E9-93F7-19DBC3B362BF}"/>
     <hyperlink ref="H29" r:id="rId14" xr:uid="{6E4918FB-D0AA-4DDE-B8FF-7AF63C9954B9}"/>
     <hyperlink ref="H28" r:id="rId15" xr:uid="{FD867A67-E6DF-4B20-97BF-2FC3289AC47D}"/>
   </hyperlinks>
@@ -1109,7 +1098,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Life/Tomos Targa LX.xlsx
+++ b/Life/Tomos Targa LX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Desktop\twc1001\Life\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC0D110-C603-4E3B-ADAB-62B7DBED6857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E1F0BE-979E-49E0-9F89-E5E6169613C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B20:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
